--- a/venv/송장출력.xlsx
+++ b/venv/송장출력.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9360" windowWidth="18000" xWindow="6000" yWindow="2415"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13140" windowWidth="24240" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Sheet1'!$A$1:$F$7</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Sheet1'!$A$1:$G$7</definedName>
   </definedNames>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
@@ -34,7 +34,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -43,7 +43,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F6F6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -54,7 +64,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFC7CE"/>
+        <fgColor rgb="00AEAAAA"/>
       </patternFill>
     </fill>
   </fills>
@@ -85,11 +95,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="표준" xfId="0"/>
@@ -365,168 +378,183 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>수령인</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>주문인</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>전화번호</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>주소</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>제품명</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>수량</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>배송메시지</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
+    <row customFormat="1" r="2" s="4">
+      <c r="A2" s="6" t="n"/>
+      <c r="B2" s="6" t="n"/>
+      <c r="C2" s="6" t="n"/>
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t>서울시 광진구</t>
         </is>
       </c>
-      <c r="D2" s="3" t="n"/>
-      <c r="E2" s="3" t="n"/>
-      <c r="F2" s="3" t="n"/>
+      <c r="E2" s="6" t="n"/>
+      <c r="F2" s="6" t="n"/>
+      <c r="G2" s="6" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n"/>
-      <c r="B3" s="3" t="n"/>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="A3" s="6" t="n"/>
+      <c r="B3" s="6" t="n"/>
+      <c r="C3" s="6" t="n"/>
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t>서울시 광진구</t>
         </is>
       </c>
-      <c r="D3" s="3" t="n"/>
-      <c r="E3" s="3" t="n"/>
-      <c r="F3" s="3" t="n"/>
+      <c r="E3" s="6" t="n"/>
+      <c r="F3" s="6" t="n"/>
+      <c r="G3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n"/>
-      <c r="B4" s="3" t="n"/>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="A4" s="6" t="n"/>
+      <c r="B4" s="6" t="n"/>
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t>서울시 광진구</t>
         </is>
       </c>
-      <c r="D4" s="3" t="n"/>
-      <c r="E4" s="3" t="n"/>
-      <c r="F4" s="3" t="n"/>
+      <c r="E4" s="6" t="n"/>
+      <c r="F4" s="6" t="n"/>
+      <c r="G4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n"/>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="A5" s="5" t="n"/>
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>서울시광진구</t>
         </is>
       </c>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
+      <c r="E5" s="5" t="n"/>
+      <c r="F5" s="5" t="n"/>
+      <c r="G5" s="5" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n"/>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="A6" s="5" t="n"/>
+      <c r="B6" s="5" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>서울시광진구</t>
         </is>
       </c>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="5" t="n"/>
+      <c r="G6" s="5" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n"/>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="A7" s="5" t="n"/>
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>서울시광진구</t>
         </is>
       </c>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
+      <c r="E7" s="5" t="n"/>
+      <c r="F7" s="5" t="n"/>
+      <c r="G7" s="5" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n"/>
-      <c r="B8" s="3" t="n"/>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="A8" s="6" t="n"/>
+      <c r="B8" s="6" t="n"/>
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="inlineStr">
         <is>
           <t>서울시 광진규</t>
         </is>
       </c>
-      <c r="D8" s="3" t="n"/>
-      <c r="E8" s="3" t="n"/>
-      <c r="F8" s="3" t="n"/>
+      <c r="E8" s="6" t="n"/>
+      <c r="F8" s="6" t="n"/>
+      <c r="G8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n"/>
-      <c r="B9" s="3" t="n"/>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="A9" s="6" t="n"/>
+      <c r="B9" s="6" t="n"/>
+      <c r="C9" s="6" t="n"/>
+      <c r="D9" s="6" t="inlineStr">
         <is>
           <t>서울시 광진규</t>
         </is>
       </c>
-      <c r="D9" s="3" t="n"/>
-      <c r="E9" s="3" t="n"/>
-      <c r="F9" s="3" t="n"/>
+      <c r="E9" s="6" t="n"/>
+      <c r="F9" s="6" t="n"/>
+      <c r="G9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n"/>
-      <c r="B10" s="3" t="n"/>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="A10" s="6" t="n"/>
+      <c r="B10" s="6" t="n"/>
+      <c r="C10" s="6" t="n"/>
+      <c r="D10" s="6" t="inlineStr">
         <is>
           <t>서울시 광진규</t>
         </is>
       </c>
-      <c r="D10" s="3" t="n"/>
-      <c r="E10" s="3" t="n"/>
-      <c r="F10" s="3" t="n"/>
+      <c r="E10" s="6" t="n"/>
+      <c r="F10" s="6" t="n"/>
+      <c r="G10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n"/>
-      <c r="B11" s="2" t="n"/>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="A11" s="5" t="n"/>
+      <c r="B11" s="5" t="n"/>
+      <c r="C11" s="5" t="n"/>
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">서울시 광진규 </t>
         </is>
       </c>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
+      <c r="E11" s="5" t="n"/>
+      <c r="F11" s="5" t="n"/>
+      <c r="G11" s="5" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F7"/>
+  <autoFilter ref="A1:G7"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
